--- a/uploads/excel/import_data.xlsx
+++ b/uploads/excel/import_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B5DF3-59B2-40B9-BBA5-652842F81757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE7BA66-379B-42A6-91D4-905E67C9707C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2EE1327-C66D-4DE6-8922-C29EDD5B23C6}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>mm</t>
   </si>
@@ -45,49 +39,22 @@
     <t>vvv</t>
   </si>
   <si>
-    <t>fasa</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>ffff</t>
-  </si>
-  <si>
-    <t>bbbb</t>
-  </si>
-  <si>
-    <t>basasdas</t>
-  </si>
-  <si>
-    <t>fdfrea</t>
-  </si>
-  <si>
-    <t>sdsadcax</t>
-  </si>
-  <si>
-    <t>asdsadwa</t>
-  </si>
-  <si>
-    <t>asdscasd</t>
-  </si>
-  <si>
     <t>wewas</t>
   </si>
   <si>
-    <t>vdfda</t>
-  </si>
-  <si>
-    <t>adsca</t>
-  </si>
-  <si>
-    <t>asdasc</t>
-  </si>
-  <si>
-    <t>njhjh</t>
-  </si>
-  <si>
-    <t>nhnhjh</t>
+    <t>NIS</t>
+  </si>
+  <si>
+    <t>ALAMAT</t>
+  </si>
+  <si>
+    <t>NAMA SANTRI</t>
+  </si>
+  <si>
+    <t>ASRAMA</t>
+  </si>
+  <si>
+    <t>TOTAL PAKET</t>
   </si>
 </sst>
 </file>
@@ -439,15 +406,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2CF214-D05D-41A7-A10D-3CF4F863069C}">
-  <dimension ref="A2:G5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>123</v>
       </c>
@@ -457,20 +446,14 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1241</v>
       </c>
@@ -480,20 +463,14 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1212</v>
       </c>
@@ -503,31 +480,28 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>333</v>
       </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
